--- a/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(入力)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD111AC-39ED-4E10-94FE-E3E07E97B9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B541A-B8B4-404B-AFCB-787E535F901C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -169,70 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーが発生しました。</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」と表示されている</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」を押下</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前の画面へ遷移すること</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前条件</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ジゼンジョウケン </t>
@@ -246,6 +175,565 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ギホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fullness Stationery社 文具/雑貨販売システム</t>
+    <rPh sb="19" eb="20">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録（入力）画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー株式会社</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクが表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」リンクが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力確認（アカウント名）
+(正常系）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：鈴木けんぞう
+アカウント名：suzuki
+パスワード：suzukikenzo
+（アカウント名が６文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント（確認）画面に遷移する</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント（確認）画面に遷移する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各テキスト入力項目：
+' OR '1'='1
+を入力
+（SQLインジェクション）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列で表示</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各テキスト入力項目：
+２０文字以内で確認できるコードがない
+（XSS）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」を押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」リンクを押下</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ログイン後の「メニュー」画面へ遷移すること</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「完了」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録（入力）」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ名」のテキスト欄が表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録（入力）画面」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/input」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/input」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -320,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -529,13 +1017,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +1088,90 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,15 +1187,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,62 +1205,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1031,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1043,105 +1615,119 @@
     <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
-    <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
+    <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="4" customWidth="1"/>
     <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10">
+        <v>45496</v>
+      </c>
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="A3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" ht="42.5" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1150,20 +1736,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1173,156 +1759,771 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-    </row>
-    <row r="7" spans="1:17" ht="11">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-    </row>
-    <row r="8" spans="1:17" ht="11">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" ht="11">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+    </row>
+    <row r="15" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" ht="62" customHeight="1">
+      <c r="A25" s="6">
+        <v>35</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:17" ht="61" customHeight="1">
+      <c r="A26" s="6">
+        <v>36</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" ht="56.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>38</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A29" s="6">
+        <v>39</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A30" s="6">
+        <v>40</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A31" s="6">
+        <v>41</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+    </row>
+    <row r="32" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A32" s="6">
+        <v>42</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A33" s="6">
+        <v>43</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+    </row>
+    <row r="34" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A34" s="6">
+        <v>44</v>
+      </c>
+      <c r="B34" s="69"/>
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A35" s="6">
+        <v>45</v>
+      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="66">
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
@@ -1332,11 +2533,15 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B541A-B8B4-404B-AFCB-787E535F901C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F84E91A-FD18-453D-BE10-7DAB465DBE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>作成者</t>
   </si>
@@ -347,51 +347,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力確認（アカウント名）
-(正常系）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>セイジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzukikenzo
-（アカウント名が６文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>担当者アカウント（確認）画面に遷移する</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -405,10 +360,6 @@
     <rPh sb="15" eb="17">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>担当者アカウント（確認）画面に遷移する</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -734,6 +685,440 @@
     </rPh>
     <rPh sb="80" eb="82">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力確認
+(正常系）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポーツ用品
+（文字数が6文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポーツ用
+（文字数が5文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポーツ用
+（文字数が4文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポーツ用
+（文字数が19文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポーツ用
+（文字数が20文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポーツ用
+（文字数が21文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：suports55
+（文字が半角英数字だけの場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：
+（商品カテゴリ名：nullの場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文字数は５文字以上２０文字以内で入力をしなければなりません。」
+とエラー項目が表示される</t>
+    <rPh sb="1" eb="4">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(正常系）</t>
+    <rPh sb="1" eb="4">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(異常系）</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポーツ用品!
+（商品カテゴリ名に記号が入った場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「全角、半角英数字で入力しなければなりません。」
+とエラーメッセージが表示される</t>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「商品カテゴリ名は入力必須です。」
+「全角、半角英数字で入力しなければなりません。」
+「文字数は5文字以上20文字以内で入力をしなければなりません。」
+と２つのエラーメッセージが表示される
+</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文字数は5文字以上20文字以内で入力をしなければなりません。」
+とエラーメッセージが表示される</t>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録（確認）画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(異常系）</t>
+    <rPh sb="1" eb="4">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">商品カテゴリ名：パソコン周辺機器
+（既に登録されているカテゴリが登録された場合）
+</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「この商品カテゴリ名は既に登録されています。」
+とエラーメッセージが表示される</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・担当者ログインが終了していること</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1041,7 +1426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,141 +1485,138 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1243,15 +1625,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1603,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1616,7 +1989,7 @@
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" style="4" customWidth="1"/>
     <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
     <col min="17" max="17" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
@@ -1624,25 +1997,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,23 +2030,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1685,32 +2058,34 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:17" ht="43" customHeight="1">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="56" t="s">
         <v>25</v>
       </c>
@@ -1736,20 +2111,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="25" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1759,766 +2134,887 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="36"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="32" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="32" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="32" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="32" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="32" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
-    </row>
-    <row r="19" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:17" ht="37.5" customHeight="1">
       <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" ht="39" customHeight="1">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
+    <row r="21" spans="1:17" ht="47" customHeight="1">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
+    <row r="22" spans="1:17" ht="39" customHeight="1">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
+    <row r="23" spans="1:17" ht="39" customHeight="1">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
+    <row r="24" spans="1:17" ht="39" customHeight="1">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="1:17" ht="62" customHeight="1">
+    <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
-        <v>35</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="1:17" ht="61" customHeight="1">
+    <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="1:17" ht="56.5" customHeight="1">
+    <row r="27" spans="1:17" ht="51.5" customHeight="1">
       <c r="A27" s="6">
-        <v>37</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+    <row r="28" spans="1:17" ht="51.5" customHeight="1">
       <c r="A28" s="6">
-        <v>38</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="1:17" ht="11.25" customHeight="1">
+    <row r="29" spans="1:17" ht="62" customHeight="1">
       <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
+      <c r="C29" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+        <v>41</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-    </row>
-    <row r="30" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P29" s="16"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17" ht="61" customHeight="1">
       <c r="A30" s="6">
-        <v>40</v>
-      </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-    </row>
-    <row r="31" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P30" s="16"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="1:17" ht="56.5" customHeight="1">
       <c r="A31" s="6">
-        <v>41</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-    </row>
-    <row r="32" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P31" s="16"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="1:17" ht="58.5" customHeight="1">
       <c r="A32" s="6">
-        <v>42</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="6">
-        <v>43</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="11.25" customHeight="1">
       <c r="A34" s="6">
-        <v>44</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
-        <v>45</v>
-      </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+    </row>
+    <row r="36" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+    </row>
+    <row r="38" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
+  <mergeCells count="83">
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2534,14 +3030,58 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-商品カテゴリ登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F84E91A-FD18-453D-BE10-7DAB465DBE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D9422-1C3C-4DA3-8965-756487CD4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>作成者</t>
   </si>
@@ -395,30 +395,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各テキスト入力項目：
-２０文字以内で確認できるコードがない
-（XSS）</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1119,6 +1095,21 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各テキスト入力項目：
+&lt;h1&gt;hello!&lt;/h1&gt;
+（XSS）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1503,128 +1494,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1978,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1997,25 +1988,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,23 +2021,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2059,50 +2050,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2111,20 +2102,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2134,105 +2125,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="33" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="33" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2244,18 +2235,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="33" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2267,18 +2258,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2290,18 +2281,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="33" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2313,66 +2304,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="33" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2384,18 +2375,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="33" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2407,18 +2398,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2430,20 +2421,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="33" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2455,49 +2446,49 @@
         <v>14</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="28" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="30"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2509,22 +2500,22 @@
         <v>16</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2536,22 +2527,22 @@
         <v>17</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2563,22 +2554,22 @@
         <v>18</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2590,22 +2581,22 @@
         <v>19</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2617,22 +2608,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2644,17 +2635,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -2671,22 +2662,22 @@
         <v>22</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2698,22 +2689,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2727,20 +2718,20 @@
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2752,18 +2743,20 @@
         <v>25</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="C30" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2775,20 +2768,20 @@
         <v>26</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
+      <c r="C31" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -2800,20 +2793,20 @@
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
+      <c r="C32" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2827,95 +2820,95 @@
       <c r="B33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
     </row>
     <row r="34" spans="1:17" ht="11.25" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
     </row>
     <row r="36" spans="1:17" ht="11.25" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2927,45 +2920,45 @@
         <v>32</v>
       </c>
       <c r="B37" s="24"/>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
     </row>
     <row r="38" spans="1:17" ht="11.25" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2977,95 +2970,28 @@
         <v>34</v>
       </c>
       <c r="B39" s="25"/>
-      <c r="C39" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
+      <c r="C39" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="P39:Q39"/>
@@ -3082,6 +3008,73 @@
     <mergeCell ref="H36:L36"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
